--- a/biology/Botanique/Leersia_hexandra/Leersia_hexandra.xlsx
+++ b/biology/Botanique/Leersia_hexandra/Leersia_hexandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leersia hexandra est une espèce de plantes monocotylédones de la famille des  Poaceae (Graminées), sous-famille des Oryzoideae, à répartition pantropicale.
 C'est une plante herbacée, vivace, rhizomateuse, subaquatique, pouvant atteindre 90 cm de haut.
-Cette espèce a été introduite dans de nombreuses régions, devenant parfois une plante envahissante. C'est aussi une mauvaise herbe dans différentes cultures[1], en particulier le riz[2].
-Elle est également cultivée comme plante fourragère pour le bétail[3].
+Cette espèce a été introduite dans de nombreuses régions, devenant parfois une plante envahissante. C'est aussi une mauvaise herbe dans différentes cultures, en particulier le riz.
+Elle est également cultivée comme plante fourragère pour le bétail.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (3 septembre 2016)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (3 septembre 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Leersia hexandra subsp. grandiflora (Döll) Roseng., B.R. Arrill. &amp; Izag.
 sous-espèce Leersia hexandra subsp. hexandra</t>
         </is>
